--- a/docs/画面項目定義書/image_dashboard.xlsx
+++ b/docs/画面項目定義書/image_dashboard.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FEC122-7C68-4D23-937A-7A514C27AA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E3A31F-45A3-4A99-A010-8F2081C50810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
+    <sheet name="シート１" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>日本工学院</t>
   </si>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>イメージダッシュボード画面</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>イメージ追加ボタン</t>
     <rPh sb="4" eb="6">
       <t>ツイカ</t>
@@ -164,16 +160,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>繰り返しで表示、削除ボタンを表示</t>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>サイズ</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -195,6 +181,45 @@
     <rPh sb="2" eb="3">
       <t>ビ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>削除ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>非表示</t>
+    <rPh sb="0" eb="3">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>繰り返し表示</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>繰り返し表示、押下時削除ボタンを表示</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>image_dashboard</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>image_dashboard.html</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -621,16 +646,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1083,7 +1108,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1135,10 +1160,10 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1148,11 +1173,13 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
@@ -1227,18 +1254,18 @@
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13">
@@ -1246,18 +1273,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>21</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13">
@@ -1265,18 +1292,18 @@
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13">
@@ -1284,18 +1311,18 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13">
@@ -1303,30 +1330,38 @@
         <v>7</v>
       </c>
       <c r="B15" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>25</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="34" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13">
       <c r="A16" s="31">
         <v>11</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
+      <c r="B16" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="13">
       <c r="A17" s="31">
@@ -1354,34 +1389,34 @@
       <c r="A19" s="31">
         <v>14</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="13">
       <c r="A20" s="31">
         <v>15</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="13">
       <c r="A21" s="31">
         <v>13</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="30"/>
       <c r="D21" s="31"/>
       <c r="E21" s="32"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="42"/>
+      <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:7" ht="13">
       <c r="A22" s="28">

--- a/docs/画面項目定義書/image_dashboard.xlsx
+++ b/docs/画面項目定義書/image_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E3A31F-45A3-4A99-A010-8F2081C50810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDF4CA0-B9E7-4B78-B2D8-658FC5ACE0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="2835" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -98,16 +98,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>イメージ追加モーダルを表示</t>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>イメージ名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -220,6 +210,16 @@
   </si>
   <si>
     <t>image_dashboard.html</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>イメージ追加モーダルへ遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1108,20 +1108,20 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="26.08984375" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1132,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1141,7 +1141,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1150,7 +1150,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1159,7 +1159,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
+    <row r="5" spans="1:7" ht="13.5">
       <c r="A5" s="41" t="s">
         <v>1</v>
       </c>
@@ -1172,20 +1172,20 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" ht="13.5">
       <c r="A6" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1194,7 +1194,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13">
+    <row r="9" spans="1:7" ht="13.5">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="13">
+    <row r="10" spans="1:7" ht="13.5">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1249,7 +1249,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="13">
+    <row r="11" spans="1:7" ht="13.5">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1265,105 +1265,105 @@
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5">
       <c r="A12" s="28">
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>20</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="31">
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="31">
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.5">
       <c r="A15" s="31">
         <v>7</v>
       </c>
       <c r="B15" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="31">
         <v>11</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="31">
         <v>12</v>
       </c>
@@ -1374,7 +1374,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="1:7" ht="13">
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="31">
         <v>13</v>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="1:7" ht="13">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="31">
         <v>14</v>
       </c>
@@ -1396,7 +1396,7 @@
       <c r="F19" s="39"/>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:7" ht="13">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="31">
         <v>15</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="F20" s="39"/>
       <c r="G20" s="34"/>
     </row>
-    <row r="21" spans="1:7" ht="13">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="31">
         <v>13</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:7" ht="13">
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="28">
         <v>14</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" ht="13">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" ht="13">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1462,7 +1462,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -1471,7 +1471,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -1480,7 +1480,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -1489,7 +1489,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>

--- a/docs/画面項目定義書/image_dashboard.xlsx
+++ b/docs/画面項目定義書/image_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FEC122-7C68-4D23-937A-7A514C27AA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E940AA-14FA-4A62-AE82-ACE98F422C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="6015" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -621,16 +621,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1083,20 +1083,20 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="26.08984375" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1107,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1116,7 +1116,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1125,7 +1125,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1134,11 +1134,11 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:7" ht="13.5">
+      <c r="A5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1147,18 +1147,18 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:7" ht="13.5">
+      <c r="A6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1167,7 +1167,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13">
+    <row r="9" spans="1:7" ht="13.5">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1205,7 +1205,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="13">
+    <row r="10" spans="1:7" ht="13.5">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="13">
+    <row r="11" spans="1:7" ht="13.5">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13">
+    <row r="12" spans="1:7" ht="13.5">
       <c r="A12" s="28">
         <v>4</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="31">
         <v>5</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13">
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="31">
         <v>6</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13">
+    <row r="15" spans="1:7" ht="13.5">
       <c r="A15" s="31">
         <v>7</v>
       </c>
@@ -1317,18 +1317,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="31">
         <v>11</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-    </row>
-    <row r="17" spans="1:7" ht="13">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="31">
         <v>12</v>
       </c>
@@ -1339,7 +1339,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="1:7" ht="13">
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="31">
         <v>13</v>
       </c>
@@ -1350,40 +1350,40 @@
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="1:7" ht="13">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="31">
         <v>14</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-    </row>
-    <row r="20" spans="1:7" ht="13">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="31">
         <v>15</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="34"/>
     </row>
-    <row r="21" spans="1:7" ht="13">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="31">
         <v>13</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="30"/>
       <c r="D21" s="31"/>
       <c r="E21" s="32"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="42"/>
-    </row>
-    <row r="22" spans="1:7" ht="13">
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="28">
         <v>14</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" ht="13">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1405,7 +1405,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" ht="13">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -1436,7 +1436,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -1445,7 +1445,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -1454,7 +1454,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>

--- a/docs/画面項目定義書/image_dashboard.xlsx
+++ b/docs/画面項目定義書/image_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDF4CA0-B9E7-4B78-B2D8-658FC5ACE0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822AB7AF-AE60-43D6-A41C-9EC989D421D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="2835" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>日本工学院</t>
   </si>
@@ -112,26 +112,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ユーザーオブジェクトを取得し、繰り返しで表示</t>
-    <rPh sb="11" eb="13">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ユーザーオブジェクトを取得し、繰り返しで表示</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>操作ボタン</t>
     <rPh sb="0" eb="2">
       <t>ソウサ</t>
@@ -164,16 +144,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>登録日</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>削除ボタン</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -188,19 +158,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>繰り返し表示</t>
-    <rPh sb="0" eb="1">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>繰り返し表示、押下時削除ボタンを表示</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -220,6 +177,91 @@
     <rPh sb="11" eb="13">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>イメージエンティティを取得し、繰り返しで表示</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>イメージエンティティを取得し、繰り返しで表示</t>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>イメージエンティティより</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>繰り返し表示、押下時確認ポップアップを表示</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>確認ポップアップ</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>はい(ポップアップ内)</t>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>確認ポップアップを非表示</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>いいえ(ポップアップ内)</t>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>いいえ</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1108,20 +1150,20 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="40.875" customWidth="1"/>
-    <col min="7" max="7" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="26.08984375" customWidth="1"/>
+    <col min="6" max="6" width="40.90625" customWidth="1"/>
+    <col min="7" max="7" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1174,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5">
+    <row r="2" spans="1:7" ht="13">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1141,7 +1183,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="14">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1150,7 +1192,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5">
+    <row r="4" spans="1:7" ht="13">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1159,7 +1201,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5">
+    <row r="5" spans="1:7" ht="13">
       <c r="A5" s="41" t="s">
         <v>1</v>
       </c>
@@ -1172,20 +1214,20 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5">
+    <row r="6" spans="1:7" ht="13">
       <c r="A6" s="42" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5">
+    <row r="7" spans="1:7" ht="13">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1194,7 +1236,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5">
+    <row r="8" spans="1:7" ht="13">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1217,7 +1259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5">
+    <row r="9" spans="1:7" ht="13">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1232,7 +1274,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5">
+    <row r="10" spans="1:7" ht="13">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1249,7 +1291,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5">
+    <row r="11" spans="1:7" ht="13">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1265,10 +1307,10 @@
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13">
       <c r="A12" s="28">
         <v>4</v>
       </c>
@@ -1280,123 +1322,145 @@
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13">
       <c r="A13" s="31">
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13">
       <c r="A14" s="31">
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13">
       <c r="A15" s="31">
         <v>7</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13">
       <c r="A16" s="31">
         <v>11</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="13.5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13">
       <c r="A17" s="31">
         <v>12</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>19</v>
+      </c>
       <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
+      <c r="E17" s="32" t="s">
+        <v>26</v>
+      </c>
       <c r="F17" s="33"/>
       <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="1:7" ht="13.5">
+    <row r="18" spans="1:7" ht="13">
       <c r="A18" s="31">
         <v>13</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
+      <c r="E18" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.5">
+      <c r="G18" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13">
       <c r="A19" s="31">
         <v>14</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.5">
+      <c r="B19" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13">
       <c r="A20" s="31">
         <v>15</v>
       </c>
@@ -1407,7 +1471,7 @@
       <c r="F20" s="39"/>
       <c r="G20" s="34"/>
     </row>
-    <row r="21" spans="1:7" ht="13.5">
+    <row r="21" spans="1:7" ht="13">
       <c r="A21" s="31">
         <v>13</v>
       </c>
@@ -1418,7 +1482,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:7" ht="13.5">
+    <row r="22" spans="1:7" ht="13">
       <c r="A22" s="28">
         <v>14</v>
       </c>
@@ -1429,7 +1493,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" ht="13.5">
+    <row r="23" spans="1:7" ht="13">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1440,7 +1504,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13.5">
+    <row r="24" spans="1:7" ht="13">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1451,7 +1515,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" ht="13.5">
+    <row r="25" spans="1:7" ht="13">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1462,7 +1526,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13.5">
+    <row r="26" spans="1:7" ht="13">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -1471,7 +1535,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13.5">
+    <row r="27" spans="1:7" ht="13">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -1480,7 +1544,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13.5">
+    <row r="28" spans="1:7" ht="13">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -1489,7 +1553,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13.5">
+    <row r="29" spans="1:7" ht="13">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
